--- a/轴模板.xlsx
+++ b/轴模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\source\repos\美咲后援团写轴器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\source\repos\写轴器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80DBBA-84DE-421D-BD66-385783C02E3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A38A4-530C-4CC9-8001-C364AD60CD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{377E173B-EC92-45AC-BB12-CBB6FDEC0DEF}"/>
   </bookViews>
@@ -107,7 +107,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>带图片无法直接复制只能导入</t>
+      <t>带图片无法直接复制需要导入</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1024,306 +1024,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB861BD-E4E8-499D-9914-31B201DCE25C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EBDD81-0F01-4852-B27F-51F133D95920}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF571BE4-57B9-448A-B4AC-E655AF480667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9EAD99-9091-4A2F-9B9F-57E483709CA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D28454-2EA5-4C11-A40A-CACEEF7E5A57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4381500" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD73D6F-5EAE-42FF-8991-650DDB0A980F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2952750" y="1285875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1349,7 +1049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1675,7 +1375,7 @@
   <dimension ref="B1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/轴模板.xlsx
+++ b/轴模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\source\repos\写轴器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A38A4-530C-4CC9-8001-C364AD60CD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D1BE4-FC7E-48EA-892E-16207ECBBEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{377E173B-EC92-45AC-BB12-CBB6FDEC0DEF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>轴</t>
   </si>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>TIME UP!  暂停报伤害！ 别滑刀！ 千万别滑刀！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -726,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,37 +801,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,28 +966,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042AF5D4-3DB9-4445-AC95-20C997AC16BA}">
   <dimension ref="B1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1387,131 +1389,131 @@
     <row r="2" spans="3:17" ht="18.75" customHeight="1"/>
     <row r="3" spans="3:17" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="55" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="83"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="62"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="Q5" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="80"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="77"/>
     </row>
     <row r="8" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="80"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="80"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="77"/>
     </row>
     <row r="10" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="80"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="77"/>
     </row>
     <row r="11" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="81"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1536,8 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1558,8 +1560,8 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1582,8 +1584,8 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1606,74 +1608,74 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="54"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="2:14" ht="18.75" customHeight="1">
       <c r="B19" s="1"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="91"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" customHeight="1">
       <c r="B20" s="1"/>
@@ -2862,41 +2864,39 @@
     </row>
     <row r="99" spans="2:14" ht="18.75" customHeight="1">
       <c r="B99" s="1"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="82"/>
       <c r="E99" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="30"/>
+      <c r="F99" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="93"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="84"/>
+      <c r="L99" s="84"/>
+      <c r="M99" s="84"/>
+      <c r="N99" s="85"/>
     </row>
     <row r="100" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B100" s="1"/>
-      <c r="C100" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="33" t="s">
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="35"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="89"/>
+      <c r="J100" s="89"/>
+      <c r="K100" s="89"/>
+      <c r="L100" s="89"/>
+      <c r="M100" s="89"/>
+      <c r="N100" s="90"/>
     </row>
     <row r="101" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="102" spans="2:14" ht="18.75" customHeight="1"/>
@@ -2911,6 +2911,323 @@
     <row r="111" spans="2:14" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="341">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:N100"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="C16:N17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="C6:D11"/>
+    <mergeCell ref="E6:F11"/>
+    <mergeCell ref="G6:H11"/>
+    <mergeCell ref="I6:J11"/>
+    <mergeCell ref="K6:L11"/>
+    <mergeCell ref="M6:N11"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="C83:D83"/>
@@ -2935,323 +3252,6 @@
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="C16:N17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="C6:D11"/>
-    <mergeCell ref="E6:F11"/>
-    <mergeCell ref="G6:H11"/>
-    <mergeCell ref="I6:J11"/>
-    <mergeCell ref="K6:L11"/>
-    <mergeCell ref="M6:N11"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:N100"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/轴模板.xlsx
+++ b/轴模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\source\repos\写轴器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D1BE4-FC7E-48EA-892E-16207ECBBEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A38A4-530C-4CC9-8001-C364AD60CD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{377E173B-EC92-45AC-BB12-CBB6FDEC0DEF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>轴</t>
   </si>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>TIME UP!  暂停报伤害！ 别滑刀！ 千万别滑刀！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -722,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,28 +805,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,43 +979,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042AF5D4-3DB9-4445-AC95-20C997AC16BA}">
   <dimension ref="B1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1389,131 +1387,131 @@
     <row r="2" spans="3:17" ht="18.75" customHeight="1"/>
     <row r="3" spans="3:17" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="80"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="62"/>
       <c r="Q5" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
     </row>
     <row r="7" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="77"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="77"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="80"/>
     </row>
     <row r="9" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="77"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="77"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="11" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="78"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1534,8 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1560,8 +1558,8 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1584,8 +1582,8 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1608,74 +1606,74 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="48" t="s">
+      <c r="I18" s="52"/>
+      <c r="J18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="2:14" ht="18.75" customHeight="1">
       <c r="B19" s="1"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="91"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" customHeight="1">
       <c r="B20" s="1"/>
@@ -2864,39 +2862,41 @@
     </row>
     <row r="99" spans="2:14" ht="18.75" customHeight="1">
       <c r="B99" s="1"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="93"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84"/>
-      <c r="M99" s="84"/>
-      <c r="N99" s="85"/>
+      <c r="F99" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="30"/>
     </row>
     <row r="100" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B100" s="1"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="88" t="s">
+      <c r="C100" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="89"/>
-      <c r="M100" s="89"/>
-      <c r="N100" s="90"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="35"/>
     </row>
     <row r="101" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="102" spans="2:14" ht="18.75" customHeight="1"/>
@@ -2911,6 +2911,323 @@
     <row r="111" spans="2:14" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="341">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="C16:N17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="C6:D11"/>
+    <mergeCell ref="E6:F11"/>
+    <mergeCell ref="G6:H11"/>
+    <mergeCell ref="I6:J11"/>
+    <mergeCell ref="K6:L11"/>
+    <mergeCell ref="M6:N11"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:N100"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:N94"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:I31"/>
@@ -2935,323 +3252,6 @@
     <mergeCell ref="J71:N71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:N100"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="C16:N17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="C6:D11"/>
-    <mergeCell ref="E6:F11"/>
-    <mergeCell ref="G6:H11"/>
-    <mergeCell ref="I6:J11"/>
-    <mergeCell ref="K6:L11"/>
-    <mergeCell ref="M6:N11"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/轴模板.xlsx
+++ b/轴模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\source\repos\写轴器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D1BE4-FC7E-48EA-892E-16207ECBBEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29918F8B-06E3-43DD-A73A-E32F19B696B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{377E173B-EC92-45AC-BB12-CBB6FDEC0DEF}"/>
   </bookViews>
@@ -83,10 +83,6 @@
     <t>BOSS</t>
   </si>
   <si>
-    <t>TIME UP!  暂停报伤害！ 别滑刀！ 千万别滑刀！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">BOSS UB  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,6 +101,10 @@
       </rPr>
       <t>带图片无法直接复制需要导入</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME UP!  暂停或F1切屏报伤害！ 别滑刀！ 千万别滑刀！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,28 +801,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,43 +975,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042AF5D4-3DB9-4445-AC95-20C997AC16BA}">
   <dimension ref="B1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="P106" sqref="P106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1389,131 +1383,131 @@
     <row r="2" spans="3:17" ht="18.75" customHeight="1"/>
     <row r="3" spans="3:17" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C5" s="80"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="62"/>
       <c r="Q5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
     </row>
     <row r="7" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="77"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="77"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="80"/>
     </row>
     <row r="9" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="77"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="77"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="11" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="78"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1530,8 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1560,8 +1554,8 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1584,8 +1578,8 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="3:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1608,74 +1602,74 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="48" t="s">
+      <c r="I18" s="52"/>
+      <c r="J18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="2:14" ht="18.75" customHeight="1">
       <c r="B19" s="1"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="91"/>
     </row>
     <row r="20" spans="2:14" ht="18.75" customHeight="1">
       <c r="B20" s="1"/>
@@ -2864,39 +2858,39 @@
     </row>
     <row r="99" spans="2:14" ht="18.75" customHeight="1">
       <c r="B99" s="1"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="93"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84"/>
-      <c r="M99" s="84"/>
-      <c r="N99" s="85"/>
+      <c r="F99" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="30"/>
     </row>
     <row r="100" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
       <c r="B100" s="1"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="89"/>
-      <c r="M100" s="89"/>
-      <c r="N100" s="90"/>
+      <c r="C100" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="33"/>
     </row>
     <row r="101" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="102" spans="2:14" ht="18.75" customHeight="1"/>
@@ -2910,7 +2904,323 @@
     <row r="110" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="111" spans="2:14" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="341">
+  <mergeCells count="340">
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="C16:N17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="C6:D11"/>
+    <mergeCell ref="E6:F11"/>
+    <mergeCell ref="G6:H11"/>
+    <mergeCell ref="I6:J11"/>
+    <mergeCell ref="K6:L11"/>
+    <mergeCell ref="M6:N11"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="C100:N100"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:N94"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:I31"/>
@@ -2935,323 +3245,6 @@
     <mergeCell ref="J71:N71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:N100"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="C16:N17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="C6:D11"/>
-    <mergeCell ref="E6:F11"/>
-    <mergeCell ref="G6:H11"/>
-    <mergeCell ref="I6:J11"/>
-    <mergeCell ref="K6:L11"/>
-    <mergeCell ref="M6:N11"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:J5"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
